--- a/biology/Zoologie/Dorygnathus/Dorygnathus.xlsx
+++ b/biology/Zoologie/Dorygnathus/Dorygnathus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorygnathus (« mâchoire élancée ») est un genre éteint de ptérosaures qui ont vécu dans l'Europe pendant le Jurassique inférieur.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Dorygnathus a été créé en 1860 par le paléontologue allemand Johann Andreas Wagner (1797-1861) avec pour espèce type Dorygnathus banthensis.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a une petite envergure de 1,50 mètre pour une masse de 2 kilogrammes à peine. Son crâne était long et ses orbites étaient très grandes, ce qui devait l'aider pour la chasse.
 </t>
@@ -573,12 +589,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (21 juillet 2021)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (21 juillet 2021) :
 † Dorygnathus banthensis (Theodori, 1830) - espèce type
 † Dorygnathus mistelgauensis Wild, 1971
-Paleobiology Database ne reconnait que l'espèce Dorygnathus banthensis dans ce genre[1].
+Paleobiology Database ne reconnait que l'espèce Dorygnathus banthensis dans ce genre.
 </t>
         </is>
       </c>
